--- a/Functions/linux-functions.xlsx
+++ b/Functions/linux-functions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\personal\AssertSyscall\Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\git\personal\AssertSyscall-csharp\Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86FAE5A-7C76-4BE1-B032-79D4B6F6740F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400107F8-77B0-4C4C-9F5A-A278D5011A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C31B78F2-B146-43ED-955C-9C95B33281C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="661">
   <si>
     <t>Category</t>
   </si>
@@ -2011,6 +2011,12 @@
   </si>
   <si>
     <t>path;alias</t>
+  </si>
+  <si>
+    <t>port;addr</t>
+  </si>
+  <si>
+    <t>ArgComplexProperty(1, "sin_port");ArgComplexProperty(1, "sin_addr")</t>
   </si>
 </sst>
 </file>
@@ -2370,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F111E485-2041-4CD6-9527-156EAE520968}">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2387,7 @@
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="110.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="72.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6629,6 +6635,12 @@
       <c r="D193" t="s">
         <v>402</v>
       </c>
+      <c r="E193" t="s">
+        <v>659</v>
+      </c>
+      <c r="F193" t="s">
+        <v>660</v>
+      </c>
       <c r="G193" t="s">
         <v>559</v>
       </c>
